--- a/public/output/personel-31/پرسنل31_اسفند_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_اسفند_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>1400/12/1</t>
   </si>
   <si>
-    <t>0:0:0</t>
+    <t>00:00:00</t>
   </si>
   <si>
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>7:30:0</t>
+    <t>07:30:00</t>
   </si>
   <si>
     <t>دوشنبه</t>
@@ -104,6 +101,9 @@
     <t>1400/12/5</t>
   </si>
   <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
     <t>جمعه</t>
   </si>
   <si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>1400/12/29</t>
+  </si>
+  <si>
+    <t>مجموع</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>157:30:00</t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -220,6 +229,12 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,25 +253,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -284,13 +300,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="10:10">
-      <c r="J2" s="4" t="s">
-        <v>19</v>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -300,7 +322,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -308,131 +330,128 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -440,16 +459,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -460,119 +476,116 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -580,16 +593,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -600,119 +610,116 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -720,16 +727,13 @@
         <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -740,119 +744,116 @@
         <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -860,16 +861,13 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -880,36 +878,59 @@
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
